--- a/statistics/HistoricalDistanceData/historical_distance/Q23055179-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q23055179-en.xlsx
@@ -31,67 +31,67 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Searching for answers in Gage Park: What happened on California Ave?</t>
+  </si>
+  <si>
+    <t>Gage Park Murders: 13-year-old begged for life, prosecutors say</t>
+  </si>
+  <si>
+    <t>DNA, phone records lead to charges in Gage Park massacre: police</t>
+  </si>
+  <si>
+    <t>Family's dog Pelusa seems 'petrified' after Gage Park slayings</t>
+  </si>
+  <si>
     <t>Medical examiner: All six victims in Gage Park died in homicides</t>
   </si>
   <si>
-    <t>DNA, phone records lead to charges in Gage Park massacre: police</t>
-  </si>
-  <si>
-    <t>Family's dog Pelusa seems 'petrified' after Gage Park slayings</t>
-  </si>
-  <si>
-    <t>Gage Park Murders: 13-year-old begged for life, prosecutors say</t>
-  </si>
-  <si>
-    <t>Searching for answers in Gage Park: What happened on California Ave?</t>
-  </si>
-  <si>
     <t>3 Bladed Weapons, Gun Used in Gage Park Family Massacre</t>
   </si>
   <si>
+    <t>2016-02-05T00:31:09UTC</t>
+  </si>
+  <si>
+    <t>2016-05-20T14:20:43UTC</t>
+  </si>
+  <si>
+    <t>2016-05-19T23:53:00UTC</t>
+  </si>
+  <si>
+    <t>2016-02-05T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2016-02-06T00:00:00UTC</t>
   </si>
   <si>
-    <t>2016-05-19T23:53:00UTC</t>
-  </si>
-  <si>
-    <t>2016-02-05T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2016-05-20T14:20:43UTC</t>
-  </si>
-  <si>
-    <t>2016-02-05T00:31:09UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>day_1</t>
+  </si>
+  <si>
+    <t>day_31_beyond</t>
+  </si>
+  <si>
     <t>day_2_to_30</t>
   </si>
   <si>
-    <t>day_31_beyond</t>
-  </si>
-  <si>
-    <t>day_1</t>
+    <t>http://abc7chicago.com/news/searching-for-answers-what-happened-on-california-ave-/1187462/</t>
+  </si>
+  <si>
+    <t>http://abc7chicago.com/news/gage-park-murders-13-year-old-begged-for-life-prosecutors-say/1347513/</t>
+  </si>
+  <si>
+    <t>http://chicago.suntimes.com/news/sneed-gage-park-massacre/</t>
+  </si>
+  <si>
+    <t>http://www.chicagotribune.com/news/local/breaking/ct-gage-park-killings-family-dog-survived-20160205-story.html</t>
   </si>
   <si>
     <t>http://www.chicagotribune.com/news/local/breaking/ct-gage-park-slayings-20160205-story.html</t>
-  </si>
-  <si>
-    <t>http://chicago.suntimes.com/news/sneed-gage-park-massacre/</t>
-  </si>
-  <si>
-    <t>http://www.chicagotribune.com/news/local/breaking/ct-gage-park-killings-family-dog-survived-20160205-story.html</t>
-  </si>
-  <si>
-    <t>http://abc7chicago.com/news/gage-park-murders-13-year-old-begged-for-life-prosecutors-say/1347513/</t>
-  </si>
-  <si>
-    <t>http://abc7chicago.com/news/searching-for-answers-what-happened-on-california-ave-/1187462/</t>
   </si>
   <si>
     <t>http://www.nbcchicago.com/news/local/3-Edge-Weapons-Used-in-Family-Massacre-368441491.html</t>
@@ -496,7 +496,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -513,7 +513,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -530,10 +530,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -547,10 +547,10 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
